--- a/experiment/linear/ex9.1.9/Experimentos_Generador/ex9.1.9(Linear)__C_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.9/Experimentos_Generador/ex9.1.9(Linear)__C_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,79 +66,88 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>2 - x + 0.1461094461694994y</t>
-  </si>
-  <si>
-    <t>0.6412745241847959</t>
+    <t>2.6252662319059663 - x - 0.12098907152560284y</t>
+  </si>
+  <si>
+    <t>-0.6252662319059663</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.5719608447391625</t>
-  </si>
-  <si>
-    <t>0.435935358027149</t>
-  </si>
-  <si>
-    <t>0.09519356079664709</t>
-  </si>
-  <si>
-    <t>-2 - 0.25x + 1.1102230246251565e-16y</t>
-  </si>
-  <si>
-    <t>-2.453429183782882</t>
-  </si>
-  <si>
-    <t>0.8600010900817717</t>
-  </si>
-  <si>
-    <t>0.9753544772991152</t>
+    <t>0.62</t>
+  </si>
+  <si>
+    <t>-2.0</t>
+  </si>
+  <si>
+    <t>-0.2</t>
+  </si>
+  <si>
+    <t>-22.11261681242672 - 0.25x + 4.597584717972911y</t>
+  </si>
+  <si>
+    <t>20.11261681242672</t>
+  </si>
+  <si>
+    <t>0.96</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>7.6</t>
+  </si>
+  <si>
+    <t>-0.423517021032052 + x - 0.32652093068454247y</t>
+  </si>
+  <si>
+    <t>-7.576482978967948</t>
+  </si>
+  <si>
+    <t>J_0_LP_v</t>
+  </si>
+  <si>
+    <t>0.88</t>
+  </si>
+  <si>
+    <t>-1.1</t>
+  </si>
+  <si>
+    <t>-0.3</t>
+  </si>
+  <si>
+    <t>-2.8600000000000003 + x</t>
+  </si>
+  <si>
+    <t>0.03000000000000025</t>
+  </si>
+  <si>
+    <t>J_Ne_L0_v</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
+    <t>0.0</t>
+  </si>
+  <si>
+    <t>-26.579347319815504 + 5.38401368288933y</t>
+  </si>
+  <si>
+    <t>26.489347319815504</t>
+  </si>
+  <si>
+    <t>0.34</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>-8 + x + 0.17423885555553187y</t>
-  </si>
-  <si>
-    <t>-5.64369578411737</t>
-  </si>
-  <si>
-    <t>J_0_LP_v</t>
-  </si>
-  <si>
-    <t>0.2524405147195238</t>
-  </si>
-  <si>
-    <t>0.627989131997576</t>
-  </si>
-  <si>
-    <t>-2 + x + 0.5360917722160261y</t>
-  </si>
-  <si>
-    <t>1.483130157359732</t>
-  </si>
-  <si>
-    <t>J_Ne_L0_v</t>
-  </si>
-  <si>
-    <t>0.25205297546627203</t>
-  </si>
-  <si>
-    <t>0.34927573848871163</t>
-  </si>
-  <si>
-    <t>-1.1102230246251565e-16y</t>
-  </si>
-  <si>
-    <t>-3.457283463453648e-16</t>
-  </si>
-  <si>
-    <t>0.0911069374509522</t>
-  </si>
-  <si>
-    <t>0.11345201250419956</t>
+    <t>8.9</t>
   </si>
   <si>
     <t>x</t>
@@ -147,25 +156,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>1.8137167351315309</t>
-  </si>
-  <si>
-    <t>3.1140441035448054</t>
+    <t>2.0300000000000002</t>
+  </si>
+  <si>
+    <t>4.92</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>0.7373226450539063</t>
+    <t>-4.881894338088095</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-0.3202260226480722</t>
-  </si>
-  <si>
-    <t>-1.0636942737270492</t>
+    <t>-3.825</t>
+  </si>
+  <si>
+    <t>-34.244002664411866</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -656,50 +665,50 @@
         <v>25</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -717,18 +726,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -746,12 +755,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -769,17 +778,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -797,12 +806,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>0.6515222888889363</v>
+        <v>1.653041861369085</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/linear/ex9.1.9/Experimentos_Generador/ex9.1.9(Linear)__C_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.9/Experimentos_Generador/ex9.1.9(Linear)__C_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,88 +66,82 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>2.6252662319059663 - x - 0.12098907152560284y</t>
-  </si>
-  <si>
-    <t>-0.6252662319059663</t>
+    <t>-1.8857657657657683 - x + 3.0630630630630633y</t>
+  </si>
+  <si>
+    <t>3.8857657657657683</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.62</t>
-  </si>
-  <si>
-    <t>-2.0</t>
-  </si>
-  <si>
-    <t>-0.2</t>
-  </si>
-  <si>
-    <t>-22.11261681242672 - 0.25x + 4.597584717972911y</t>
-  </si>
-  <si>
-    <t>20.11261681242672</t>
-  </si>
-  <si>
-    <t>0.96</t>
-  </si>
-  <si>
-    <t>7.1</t>
-  </si>
-  <si>
-    <t>7.6</t>
-  </si>
-  <si>
-    <t>-0.423517021032052 + x - 0.32652093068454247y</t>
-  </si>
-  <si>
-    <t>-7.576482978967948</t>
+    <t>0.21</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>3.4000000000000004</t>
+  </si>
+  <si>
+    <t>1.42 - 0.25x</t>
+  </si>
+  <si>
+    <t>-3.42</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>4.699999999999999</t>
+  </si>
+  <si>
+    <t>-5.54415 + x - 0.05499999999999994y</t>
+  </si>
+  <si>
+    <t>-2.45585</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.88</t>
-  </si>
-  <si>
-    <t>-1.1</t>
-  </si>
-  <si>
-    <t>-0.3</t>
-  </si>
-  <si>
-    <t>-2.8600000000000003 + x</t>
-  </si>
-  <si>
-    <t>0.03000000000000025</t>
+    <t>0.97</t>
+  </si>
+  <si>
+    <t>6.2</t>
+  </si>
+  <si>
+    <t>-23.22918918918919 + x + 6.756756756756756y</t>
+  </si>
+  <si>
+    <t>20.36918918918919</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.29</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>0.0</t>
-  </si>
-  <si>
-    <t>-26.579347319815504 + 5.38401368288933y</t>
-  </si>
-  <si>
-    <t>26.489347319815504</t>
-  </si>
-  <si>
-    <t>0.34</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>8.9</t>
+    <t>0.43</t>
+  </si>
+  <si>
+    <t>6.3</t>
+  </si>
+  <si>
+    <t>7.5</t>
+  </si>
+  <si>
+    <t>-17.579279279279284 - 7.117117117117119y</t>
+  </si>
+  <si>
+    <t>-17.579279279279284</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>-9.3</t>
+  </si>
+  <si>
+    <t>-7.9</t>
   </si>
   <si>
     <t>x</t>
@@ -156,25 +150,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>2.0300000000000002</t>
-  </si>
-  <si>
-    <t>4.92</t>
+    <t>5.68</t>
+  </si>
+  <si>
+    <t>2.47</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>-4.881894338088095</t>
+    <t>0.8497463963963972</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-3.825</t>
-  </si>
-  <si>
-    <t>-34.244002664411866</t>
+    <t>-6.125</t>
+  </si>
+  <si>
+    <t>-109.75675675675677</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -648,67 +642,67 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>23</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E5" t="s">
         <v>30</v>
       </c>
-      <c r="D5" t="s">
+      <c r="F5" t="s">
         <v>31</v>
-      </c>
-      <c r="E5" t="s">
-        <v>32</v>
-      </c>
-      <c r="F5" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
         <v>34</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6" t="s">
         <v>35</v>
       </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="F6" t="s">
         <v>36</v>
-      </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -726,18 +720,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -755,12 +749,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -778,17 +772,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -806,12 +800,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>1.653041861369085</v>
+        <v>1.1099999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/experiment/linear/ex9.1.9/Experimentos_Generador/ex9.1.9(Linear)__C_Stationarygenerator_alpha_non_zero.xlsx
+++ b/experiment/linear/ex9.1.9/Experimentos_Generador/ex9.1.9(Linear)__C_Stationarygenerator_alpha_non_zero.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>Leader_Expr</t>
   </si>
@@ -66,82 +66,73 @@
     <t>Gamma_value</t>
   </si>
   <si>
-    <t>-1.8857657657657683 - x + 3.0630630630630633y</t>
-  </si>
-  <si>
-    <t>3.8857657657657683</t>
+    <t>30.03274261603375 - x - 4.092827004219409y</t>
+  </si>
+  <si>
+    <t>-28.03274261603375</t>
   </si>
   <si>
     <t>J_0_L0_v</t>
   </si>
   <si>
-    <t>0.21</t>
+    <t>0.93</t>
+  </si>
+  <si>
+    <t>-9.8</t>
+  </si>
+  <si>
+    <t>-9.7</t>
+  </si>
+  <si>
+    <t>1.1950000000000003 - 0.25x</t>
+  </si>
+  <si>
+    <t>-3.1950000000000003</t>
+  </si>
+  <si>
+    <t>0.41</t>
   </si>
   <si>
     <t>0</t>
   </si>
   <si>
-    <t>3.4000000000000004</t>
-  </si>
-  <si>
-    <t>1.42 - 0.25x</t>
-  </si>
-  <si>
-    <t>-3.42</t>
-  </si>
-  <si>
-    <t>0.19</t>
-  </si>
-  <si>
-    <t>4.699999999999999</t>
-  </si>
-  <si>
-    <t>-5.54415 + x - 0.05499999999999994y</t>
-  </si>
-  <si>
-    <t>-2.45585</t>
+    <t>-4.78 + x</t>
+  </si>
+  <si>
+    <t>-3.2199999999999998</t>
   </si>
   <si>
     <t>J_0_LP_v</t>
   </si>
   <si>
-    <t>0.97</t>
-  </si>
-  <si>
-    <t>6.2</t>
-  </si>
-  <si>
-    <t>-23.22918918918919 + x + 6.756756756756756y</t>
-  </si>
-  <si>
-    <t>20.36918918918919</t>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>-5.6 + x</t>
+  </si>
+  <si>
+    <t>2.7800000000000002</t>
   </si>
   <si>
     <t>J_Ne_L0_v</t>
   </si>
   <si>
-    <t>0.43</t>
-  </si>
-  <si>
-    <t>6.3</t>
-  </si>
-  <si>
-    <t>7.5</t>
-  </si>
-  <si>
-    <t>-17.579279279279284 - 7.117117117117119y</t>
-  </si>
-  <si>
-    <t>-17.579279279279284</t>
-  </si>
-  <si>
-    <t>0.47</t>
-  </si>
-  <si>
-    <t>-9.3</t>
-  </si>
-  <si>
-    <t>-7.9</t>
+    <t>0.36</t>
+  </si>
+  <si>
+    <t>-16.40126582278481 - 2.6582278481012658y</t>
+  </si>
+  <si>
+    <t>-16.40126582278481</t>
+  </si>
+  <si>
+    <t>0.79</t>
+  </si>
+  <si>
+    <t>-4.0</t>
+  </si>
+  <si>
+    <t>-6.3</t>
   </si>
   <si>
     <t>x</t>
@@ -150,25 +141,25 @@
     <t>y</t>
   </si>
   <si>
-    <t>5.68</t>
-  </si>
-  <si>
-    <t>2.47</t>
+    <t>4.78</t>
+  </si>
+  <si>
+    <t>6.17</t>
   </si>
   <si>
     <t>vec_bf</t>
   </si>
   <si>
-    <t>0.8497463963963972</t>
+    <t>6.90632911392405</t>
   </si>
   <si>
     <t>vec_BF</t>
   </si>
   <si>
-    <t>-6.125</t>
-  </si>
-  <si>
-    <t>-109.75675675675677</t>
+    <t>-10.8</t>
+  </si>
+  <si>
+    <t>-51.74261603375527</t>
   </si>
   <si>
     <t>vec_alpha</t>
@@ -642,7 +633,7 @@
         <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -659,50 +650,50 @@
         <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="F4" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" t="s">
         <v>26</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>27</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>28</v>
       </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" t="s">
+      <c r="F6" t="s">
         <v>33</v>
-      </c>
-      <c r="C6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" t="s">
-        <v>34</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -720,18 +711,18 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -749,12 +740,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -772,17 +763,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -800,12 +791,12 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2">
-        <v>1.1099999999999999</v>
+        <v>2.37</v>
       </c>
     </row>
   </sheetData>
